--- a/Wetlands/DroneFiles/Drone_flights_2023-04-19.xlsx
+++ b/Wetlands/DroneFiles/Drone_flights_2023-04-19.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kriddie/Documents/Ecuador2022/Wetlands/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kriddie/Documents/Ecuador2022/Wetlands/DroneFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C196C152-ACFC-0947-95EA-39B6EA7B511C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF89A38-530B-9647-B3A4-D319BC28DFA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="5860" windowWidth="35840" windowHeight="20340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="500" windowWidth="22920" windowHeight="20340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -980,10 +980,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>962025</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>136525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="6496050" cy="4019550"/>
     <xdr:graphicFrame macro="">
@@ -1215,7 +1215,9 @@
   </sheetPr>
   <dimension ref="A1:N1015"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
@@ -1441,7 +1443,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" ht="15">
       <c r="A10" s="5">
         <v>2</v>
       </c>
@@ -1465,7 +1467,7 @@
         <v>0.121737</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" ht="15">
       <c r="A11" s="14">
         <v>2</v>
       </c>
@@ -1489,7 +1491,7 @@
         <v>0.37317499999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" ht="15">
       <c r="A12" s="14">
         <v>2</v>
       </c>
@@ -1514,7 +1516,7 @@
         <v>0.36359000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" ht="16">
       <c r="A13" s="14">
         <v>2</v>
       </c>
@@ -1539,7 +1541,7 @@
         <v>0.25858700000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" ht="15">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -1563,7 +1565,7 @@
         <v>-2.0100000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" ht="15">
       <c r="A15" s="5">
         <v>3</v>
       </c>
@@ -1694,7 +1696,7 @@
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" ht="19">
       <c r="A21" s="5">
         <v>4</v>
       </c>
@@ -5965,7 +5967,7 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" ht="15">
       <c r="A14" s="45">
         <v>2</v>
       </c>
@@ -5984,7 +5986,7 @@
       <c r="J14" s="48"/>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" ht="15">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -6135,7 +6137,7 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" ht="15">
       <c r="A21" s="45">
         <v>3</v>
       </c>
@@ -6154,7 +6156,7 @@
       <c r="J21" s="48"/>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" ht="15">
       <c r="A22" s="1" t="s">
         <v>17</v>
       </c>
@@ -6293,7 +6295,7 @@
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" ht="15">
       <c r="A28" s="45">
         <v>4</v>
       </c>
@@ -6312,7 +6314,7 @@
       <c r="J28" s="48"/>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" ht="15">
       <c r="A29" s="1" t="s">
         <v>18</v>
       </c>
@@ -6539,7 +6541,7 @@
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" ht="15">
       <c r="A37" s="1" t="s">
         <v>20</v>
       </c>
@@ -7011,7 +7013,7 @@
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" ht="15">
       <c r="A57" s="5">
         <v>9</v>
       </c>
